--- a/KQNhanDang.xlsx
+++ b/KQNhanDang.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>k = 1</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>HOG (4x4)</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Fitcknn</t>
+  </si>
+  <si>
+    <t>Face recognition</t>
+  </si>
+  <si>
+    <t>Number recognition</t>
   </si>
 </sst>
 </file>
@@ -87,8 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,74 +396,105 @@
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>96.91</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>97.06</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>30.39</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>30.39</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E4">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>54.39</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>57.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E6">
+        <v>86.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>97.09</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>97.46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KQNhanDang.xlsx
+++ b/KQNhanDang.xlsx
@@ -79,12 +79,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,12 +135,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,40 +431,41 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -429,66 +473,111 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>96.91</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>97.06</v>
+      </c>
+      <c r="D3" s="2">
+        <v>94.38</v>
+      </c>
+      <c r="E3" s="3">
+        <v>94.16</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>30.39</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>30.39</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="2">
+        <v>34.75</v>
+      </c>
+      <c r="E4" s="3">
         <v>97.5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>94.17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>54.39</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>57.12</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="2">
+        <v>53.89</v>
+      </c>
+      <c r="E6" s="3">
         <v>86.66</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>97.09</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>97.46</v>
+      </c>
+      <c r="D8" s="2">
+        <v>97.94</v>
+      </c>
+      <c r="E8" s="3">
+        <v>91.66</v>
+      </c>
+      <c r="F8" s="3">
+        <v>89.17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/KQNhanDang.xlsx
+++ b/KQNhanDang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Matlab_Exercises\NhanDangThongTinThiGiac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NhanDangThongTinThiGiac\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>k = 1</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Number recognition</t>
+  </si>
+  <si>
+    <t>Deep learning</t>
+  </si>
+  <si>
+    <t>93,97</t>
+  </si>
+  <si>
+    <t>Bag of Word</t>
   </si>
 </sst>
 </file>
@@ -135,17 +144,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,11 +456,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
@@ -453,19 +468,19 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -579,10 +594,29 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9">
+        <v>97</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
